--- a/MainTop/23.11.2024/печать_а5.xlsx
+++ b/MainTop/23.11.2024/печать_а5.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="53">
   <si>
     <t xml:space="preserve">Артикул</t>
   </si>
@@ -148,9 +148,6 @@
     <t xml:space="preserve">Термонаклейка Мишка красная гоночная машина</t>
   </si>
   <si>
-    <t xml:space="preserve">Термонаклейка Формы термозаплатка</t>
-  </si>
-  <si>
     <t xml:space="preserve">Термонаклейка Минни Маус Единорог розовый</t>
   </si>
   <si>
@@ -182,24 +179,6 @@
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Динозавр в очках ест бургер</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Мишка репер читает с микрофоном</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Мишка байкер мотоцикл</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Мишка стоит с скейтом</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Дисней утка Дейзи и Минни сидят</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Мишка Терминатор</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Звезды Черные термозаплатка</t>
   </si>
 </sst>
 </file>
@@ -302,8 +281,8 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F45" activeCellId="0" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1274,7 +1253,7 @@
         <v>42</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>6</v>
@@ -1286,7 +1265,7 @@
         <v>13</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G34" s="0" t="n">
         <v>1046</v>
@@ -1306,7 +1285,7 @@
         <v>0.1</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>0</v>
@@ -1335,7 +1314,7 @@
         <v>0.1</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>0</v>
@@ -1364,7 +1343,7 @@
         <v>0.1</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>0</v>
@@ -1393,7 +1372,7 @@
         <v>0.1</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>0</v>
@@ -1422,7 +1401,7 @@
         <v>0.1</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>0</v>
@@ -1451,7 +1430,7 @@
         <v>0.1</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>0</v>
@@ -1480,7 +1459,7 @@
         <v>0.1</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>0</v>
@@ -1509,7 +1488,7 @@
         <v>0.1</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>0</v>
@@ -1538,7 +1517,7 @@
         <v>0.1</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>0</v>
@@ -1567,7 +1546,7 @@
         <v>0.1</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>0</v>
@@ -1588,209 +1567,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="B45" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="F45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G45" s="0" t="n">
-        <v>1046</v>
-      </c>
-      <c r="H45" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="I45" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="B46" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C46" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="F46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G46" s="0" t="n">
-        <v>1046</v>
-      </c>
-      <c r="H46" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="I46" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B47" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C47" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="D47" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E47" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="F47" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G47" s="0" t="n">
-        <v>1046</v>
-      </c>
-      <c r="H47" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="I47" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="B48" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C48" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="F48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G48" s="0" t="n">
-        <v>1046</v>
-      </c>
-      <c r="H48" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="I48" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="B49" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C49" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="D49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="F49" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G49" s="0" t="n">
-        <v>1046</v>
-      </c>
-      <c r="H49" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="I49" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="B50" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C50" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D50" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E50" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="F50" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G50" s="0" t="n">
-        <v>1046</v>
-      </c>
-      <c r="H50" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="I50" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="B51" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C51" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D51" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="F51" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G51" s="0" t="n">
-        <v>1046</v>
-      </c>
-      <c r="H51" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="I51" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
+    <row r="1048460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
